--- a/论文内表格.xlsx
+++ b/论文内表格.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25968" windowHeight="13380" activeTab="3"/>
+    <workbookView windowWidth="25968" windowHeight="13380" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="四种主流数据库性能比较信息表" sheetId="1" r:id="rId1"/>
     <sheet name="openlayer功能表" sheetId="2" r:id="rId2"/>
     <sheet name="WebGIS 构建技术进行对比" sheetId="3" r:id="rId3"/>
     <sheet name="PDAL功能表" sheetId="4" r:id="rId4"/>
+    <sheet name="las数据详情" sheetId="5" r:id="rId5"/>
+    <sheet name="主要实现技术" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="145">
   <si>
     <t>四种主流数据库性能比较信息表</t>
   </si>
@@ -338,6 +340,144 @@
   </si>
   <si>
     <t>支持空间索引的创建和基于空间查询的点云数据提取，对处理大规模点云数据很重要。</t>
+  </si>
+  <si>
+    <t>列名</t>
+  </si>
+  <si>
+    <t>文件版本</t>
+  </si>
+  <si>
+    <t>LAS文件的版本号</t>
+  </si>
+  <si>
+    <t>点数据格式</t>
+  </si>
+  <si>
+    <t>使用的点数据记录格式（0到10，可能还有扩展格式）</t>
+  </si>
+  <si>
+    <t>点数</t>
+  </si>
+  <si>
+    <t>文件中的点数</t>
+  </si>
+  <si>
+    <t>坐标系统信息</t>
+  </si>
+  <si>
+    <t>使用的坐标系统（如WGS84, UTM等）</t>
+  </si>
+  <si>
+    <t>边界框</t>
+  </si>
+  <si>
+    <t>最小和最大坐标（Xmin, Ymin, Zmin, Xmax, Ymax, Zmax）</t>
+  </si>
+  <si>
+    <t>比例因子</t>
+  </si>
+  <si>
+    <t>坐标值的比例因子</t>
+  </si>
+  <si>
+    <t>偏移量</t>
+  </si>
+  <si>
+    <t>坐标值的偏移量</t>
+  </si>
+  <si>
+    <t>平均点间距</t>
+  </si>
+  <si>
+    <t>点云中点的平均间距</t>
+  </si>
+  <si>
+    <t>分类数量</t>
+  </si>
+  <si>
+    <t>不同分类值的数量（如地面、植被、建筑物等）</t>
+  </si>
+  <si>
+    <t>颜色信息</t>
+  </si>
+  <si>
+    <t>点是否包含RGB颜色信息</t>
+  </si>
+  <si>
+    <t>可选项（如VLRs）</t>
+  </si>
+  <si>
+    <t>包含的变长记录数量及其类型</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>具体功能</t>
+  </si>
+  <si>
+    <t>实现技术</t>
+  </si>
+  <si>
+    <t>自动化点云预处理</t>
+  </si>
+  <si>
+    <t>点云读取</t>
+  </si>
+  <si>
+    <t>Python、laspy</t>
+  </si>
+  <si>
+    <t>WebGIS开源技术、Java</t>
+  </si>
+  <si>
+    <t>生成DEM</t>
+  </si>
+  <si>
+    <t>Python、PDAL、GDAL</t>
+  </si>
+  <si>
+    <t>生成DSM</t>
+  </si>
+  <si>
+    <t>生成CHM</t>
+  </si>
+  <si>
+    <t>自动化单木分割</t>
+  </si>
+  <si>
+    <t>提取单木参数</t>
+  </si>
+  <si>
+    <t>Python、numpy</t>
+  </si>
+  <si>
+    <t>基于点云分割</t>
+  </si>
+  <si>
+    <t>Python、numpy、DBSCAN</t>
+  </si>
+  <si>
+    <t>基于CHM分割</t>
+  </si>
+  <si>
+    <t>Python、numpy、Watershed</t>
+  </si>
+  <si>
+    <t>碳储量估算模型构建</t>
+  </si>
+  <si>
+    <t>随机森林</t>
+  </si>
+  <si>
+    <t>Python、GEE</t>
+  </si>
+  <si>
+    <t>支持向量机</t>
+  </si>
+  <si>
+    <t>多元线性回归</t>
   </si>
 </sst>
 </file>
@@ -350,14 +490,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,144 +963,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1303,145 +1442,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1472,123 +1611,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1611,87 +1750,87 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="28.8" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" ht="100.8" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" ht="115.2" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" ht="115.2" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" ht="129.6" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1707,7 +1846,7 @@
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1718,90 +1857,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1809,4 +1948,271 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="21.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="51.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="6.55555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="25.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="E2:E11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>